--- a/IRU/PPC/orden_solapas.xlsx
+++ b/IRU/PPC/orden_solapas.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24931"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\GitHub\Robot Viar\IRU\PPC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0764C426-3E37-4BCA-A235-58F1D77499BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3ACDF386-508B-4290-BBEC-A093827C14B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -368,18 +368,12 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -447,10 +441,10 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -735,8 +729,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B53"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="A24" sqref="A24:A32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -747,422 +741,422 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="5" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="6"/>
-      <c r="B2" s="6"/>
+      <c r="A2" s="5"/>
+      <c r="B2" s="5"/>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="6" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="6" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
+      <c r="A5" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="6" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
+      <c r="A6" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="6" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
+      <c r="A7" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B7" s="6" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
+      <c r="A8" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="B8" s="6" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" s="2" t="s">
+      <c r="A9" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="B9" s="6" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" s="2" t="s">
+      <c r="A10" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="B10" s="6" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" s="2" t="s">
+      <c r="A11" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="B11" s="2" t="s">
+      <c r="B11" s="6" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" s="2" t="s">
+      <c r="A12" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="B12" s="2" t="s">
+      <c r="B12" s="6" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" s="2" t="s">
+      <c r="A13" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="B13" s="2" t="s">
+      <c r="B13" s="6" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" s="2" t="s">
+      <c r="A14" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="B14" s="2" t="s">
+      <c r="B14" s="6" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" s="2" t="s">
+      <c r="A15" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="B15" s="2" t="s">
+      <c r="B15" s="6" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" s="2" t="s">
+      <c r="A16" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="B16" s="2" t="s">
+      <c r="B16" s="6" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" s="2" t="s">
+      <c r="A17" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="B17" s="2" t="s">
+      <c r="B17" s="6" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" s="2" t="s">
+      <c r="A18" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="B18" s="2" t="s">
+      <c r="B18" s="6" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" s="2" t="s">
+      <c r="A19" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="B19" s="2" t="s">
+      <c r="B19" s="6" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" s="2" t="s">
+      <c r="A20" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="B20" s="2" t="s">
+      <c r="B20" s="6" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21" s="2" t="s">
+      <c r="A21" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="B21" s="2" t="s">
+      <c r="B21" s="6" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22" s="2" t="s">
+      <c r="A22" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="B22" s="2" t="s">
+      <c r="B22" s="6" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A23" s="2" t="s">
+      <c r="A23" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="B23" s="2" t="s">
+      <c r="B23" s="6" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A24" s="3" t="s">
+      <c r="A24" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="B24" s="3" t="s">
+      <c r="B24" s="2" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A25" s="3" t="s">
+      <c r="A25" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="B25" s="3" t="s">
+      <c r="B25" s="2" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A26" s="3" t="s">
+      <c r="A26" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="B26" s="3" t="s">
+      <c r="B26" s="2" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A27" s="3" t="s">
+      <c r="A27" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="B27" s="3" t="s">
+      <c r="B27" s="2" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A28" s="3" t="s">
+      <c r="A28" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="B28" s="3" t="s">
+      <c r="B28" s="2" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A29" s="3" t="s">
+      <c r="A29" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="B29" s="3" t="s">
+      <c r="B29" s="2" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A30" s="3" t="s">
+      <c r="A30" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="B30" s="3" t="s">
+      <c r="B30" s="2" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A31" s="3" t="s">
+      <c r="A31" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="B31" s="3" t="s">
+      <c r="B31" s="2" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A32" s="3" t="s">
+      <c r="A32" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="B32" s="3" t="s">
+      <c r="B32" s="2" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A33" s="4" t="s">
+      <c r="A33" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="B33" s="4" t="s">
+      <c r="B33" s="3" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A34" s="4" t="s">
+      <c r="A34" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="B34" s="4" t="s">
+      <c r="B34" s="3" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A35" s="4" t="s">
+      <c r="A35" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="B35" s="4" t="s">
+      <c r="B35" s="3" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A36" s="4" t="s">
+      <c r="A36" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="B36" s="4" t="s">
+      <c r="B36" s="3" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A37" s="4" t="s">
+      <c r="A37" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="B37" s="4" t="s">
+      <c r="B37" s="3" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A38" s="4" t="s">
+      <c r="A38" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="B38" s="4" t="s">
+      <c r="B38" s="3" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A39" s="4" t="s">
+      <c r="A39" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="B39" s="4" t="s">
+      <c r="B39" s="3" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A40" s="4" t="s">
+      <c r="A40" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="B40" s="4" t="s">
+      <c r="B40" s="3" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A41" s="4" t="s">
+      <c r="A41" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="B41" s="4" t="s">
+      <c r="B41" s="3" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A42" s="4" t="s">
+      <c r="A42" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="B42" s="4" t="s">
+      <c r="B42" s="3" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A43" s="4" t="s">
+      <c r="A43" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="B43" s="4" t="s">
+      <c r="B43" s="3" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A44" s="4" t="s">
+      <c r="A44" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="B44" s="4" t="s">
+      <c r="B44" s="3" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A45" s="4" t="s">
+      <c r="A45" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="B45" s="4" t="s">
+      <c r="B45" s="3" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A46" s="4" t="s">
+      <c r="A46" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="B46" s="4" t="s">
+      <c r="B46" s="3" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A47" s="4" t="s">
+      <c r="A47" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="B47" s="4" t="s">
+      <c r="B47" s="3" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A48" s="4" t="s">
+      <c r="A48" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="B48" s="4" t="s">
+      <c r="B48" s="3" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A49" s="5" t="s">
+      <c r="A49" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="B49" s="5" t="s">
+      <c r="B49" s="4" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A50" s="5" t="s">
+      <c r="A50" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="B50" s="5" t="s">
+      <c r="B50" s="4" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A51" s="5" t="s">
+      <c r="A51" s="4" t="s">
         <v>101</v>
       </c>
-      <c r="B51" s="5" t="s">
+      <c r="B51" s="4" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A52" s="5" t="s">
+      <c r="A52" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="B52" s="5" t="s">
+      <c r="B52" s="4" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A53" s="5" t="s">
+      <c r="A53" s="4" t="s">
         <v>103</v>
       </c>
-      <c r="B53" s="5" t="s">
+      <c r="B53" s="4" t="s">
         <v>98</v>
       </c>
     </row>
